--- a/src/test/java/ApachePOI/Resource/ApacheExcel2.xlsx
+++ b/src/test/java/ApachePOI/Resource/ApacheExcel2.xlsx
@@ -1,115 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\funda\IdeaProjects\Cucumber_Turkey\src\test\java\ApachePOI\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D347AADA-0339-4478-B0D4-18802F7AE5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660405AC-3080-4E03-BADF-26F180623742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="testCitizen" sheetId="2" r:id="rId2"/>
+    <sheet name="Page1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Zebra</t>
-  </si>
-  <si>
-    <t>Bear</t>
-  </si>
-  <si>
-    <t>White Tiger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>End</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+  <si>
+    <t>ulkemis11</t>
+  </si>
+  <si>
+    <t>uis11</t>
   </si>
   <si>
     <t>bir</t>
   </si>
   <si>
+    <t>dort</t>
+  </si>
+  <si>
+    <t>ulkemis22</t>
+  </si>
+  <si>
+    <t>uis21</t>
+  </si>
+  <si>
     <t>iki</t>
   </si>
   <si>
-    <t>dort</t>
-  </si>
-  <si>
     <t>bes</t>
   </si>
   <si>
-    <t>ulkeleris11</t>
-  </si>
-  <si>
-    <t>ulkeleris22</t>
-  </si>
-  <si>
-    <t>ulkeleris33</t>
-  </si>
-  <si>
-    <t>ulkeleris44</t>
-  </si>
-  <si>
-    <t>ulkeleris55</t>
-  </si>
-  <si>
-    <t>ulkeleris66</t>
-  </si>
-  <si>
-    <t>ulkeleris77</t>
-  </si>
-  <si>
-    <t>ulkeleris88</t>
-  </si>
-  <si>
-    <t>umis1</t>
-  </si>
-  <si>
-    <t>umis2</t>
-  </si>
-  <si>
-    <t>umis3</t>
-  </si>
-  <si>
-    <t>umis4</t>
-  </si>
-  <si>
-    <t>umis5</t>
-  </si>
-  <si>
-    <t>umis6</t>
-  </si>
-  <si>
-    <t>umis7</t>
-  </si>
-  <si>
-    <t>umis8</t>
+    <t>ulkemis33</t>
+  </si>
+  <si>
+    <t>uis31</t>
+  </si>
+  <si>
+    <t>ulkemis44</t>
+  </si>
+  <si>
+    <t>uis41</t>
+  </si>
+  <si>
+    <t>ulkemis55</t>
+  </si>
+  <si>
+    <t>uis51</t>
+  </si>
+  <si>
+    <t>ulkemis66</t>
+  </si>
+  <si>
+    <t>uis61</t>
+  </si>
+  <si>
+    <t>ulkemis77</t>
+  </si>
+  <si>
+    <t>uis71</t>
+  </si>
+  <si>
+    <t>ulkemis88</t>
+  </si>
+  <si>
+    <t>uis81</t>
   </si>
 </sst>
 </file>
@@ -119,7 +89,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -145,9 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +151,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -194,7 +163,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -241,6 +210,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -276,6 +262,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -428,258 +431,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
